--- a/published-data/fonds-solidarite/fds-2022-05-13/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-05-13/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
@@ -3511,13 +3511,13 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>35916</v>
+        <v>35917</v>
       </c>
       <c r="D61" t="n">
         <v>7000</v>
       </c>
       <c r="E61" t="n">
-        <v>147207392</v>
+        <v>147208847</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -4939,13 +4939,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>58710</v>
+        <v>58711</v>
       </c>
       <c r="D89" t="n">
         <v>11363</v>
       </c>
       <c r="E89" t="n">
-        <v>233985279</v>
+        <v>233995279</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -5806,13 +5806,13 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D106" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E106" t="n">
-        <v>24603650</v>
+        <v>24663644</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -11314,13 +11314,13 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>8511</v>
+        <v>8512</v>
       </c>
       <c r="D214" t="n">
         <v>1796</v>
       </c>
       <c r="E214" t="n">
-        <v>31505395</v>
+        <v>31515395</v>
       </c>
       <c r="F214" t="inlineStr">
         <is>
@@ -17230,13 +17230,13 @@
         </is>
       </c>
       <c r="C330" t="n">
-        <v>20985</v>
+        <v>20986</v>
       </c>
       <c r="D330" t="n">
         <v>4303</v>
       </c>
       <c r="E330" t="n">
-        <v>75012071</v>
+        <v>75015571</v>
       </c>
       <c r="F330" t="inlineStr">
         <is>
@@ -17281,13 +17281,13 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>10124</v>
+        <v>10125</v>
       </c>
       <c r="D331" t="n">
         <v>1979</v>
       </c>
       <c r="E331" t="n">
-        <v>54172963</v>
+        <v>54178516</v>
       </c>
       <c r="F331" t="inlineStr">
         <is>
@@ -18046,13 +18046,13 @@
         </is>
       </c>
       <c r="C346" t="n">
-        <v>4187</v>
+        <v>4188</v>
       </c>
       <c r="D346" t="n">
         <v>797</v>
       </c>
       <c r="E346" t="n">
-        <v>9180684</v>
+        <v>9183365</v>
       </c>
       <c r="F346" t="inlineStr">
         <is>
@@ -18097,13 +18097,13 @@
         </is>
       </c>
       <c r="C347" t="n">
-        <v>14349</v>
+        <v>14352</v>
       </c>
       <c r="D347" t="n">
         <v>2812</v>
       </c>
       <c r="E347" t="n">
-        <v>36148502</v>
+        <v>36179469</v>
       </c>
       <c r="F347" t="inlineStr">
         <is>
@@ -18148,13 +18148,13 @@
         </is>
       </c>
       <c r="C348" t="n">
-        <v>5196</v>
+        <v>5198</v>
       </c>
       <c r="D348" t="n">
         <v>1053</v>
       </c>
       <c r="E348" t="n">
-        <v>20331329</v>
+        <v>20337729</v>
       </c>
       <c r="F348" t="inlineStr">
         <is>
@@ -18454,13 +18454,13 @@
         </is>
       </c>
       <c r="C354" t="n">
-        <v>15723</v>
+        <v>15724</v>
       </c>
       <c r="D354" t="n">
         <v>2768</v>
       </c>
       <c r="E354" t="n">
-        <v>24657676</v>
+        <v>24658131</v>
       </c>
       <c r="F354" t="inlineStr">
         <is>
@@ -21973,13 +21973,13 @@
         </is>
       </c>
       <c r="C423" t="n">
-        <v>4862</v>
+        <v>4863</v>
       </c>
       <c r="D423" t="n">
         <v>711</v>
       </c>
       <c r="E423" t="n">
-        <v>96763830</v>
+        <v>96781924</v>
       </c>
       <c r="F423" t="inlineStr">
         <is>
@@ -22483,13 +22483,13 @@
         </is>
       </c>
       <c r="C433" t="n">
-        <v>61054</v>
+        <v>61055</v>
       </c>
       <c r="D433" t="n">
         <v>9650</v>
       </c>
       <c r="E433" t="n">
-        <v>220836435</v>
+        <v>220846435</v>
       </c>
       <c r="F433" t="inlineStr">
         <is>
@@ -22534,13 +22534,13 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>163475</v>
+        <v>163479</v>
       </c>
       <c r="D434" t="n">
         <v>25454</v>
       </c>
       <c r="E434" t="n">
-        <v>710026843</v>
+        <v>710056986</v>
       </c>
       <c r="F434" t="inlineStr">
         <is>
@@ -22585,13 +22585,13 @@
         </is>
       </c>
       <c r="C435" t="n">
-        <v>94515</v>
+        <v>94521</v>
       </c>
       <c r="D435" t="n">
         <v>12851</v>
       </c>
       <c r="E435" t="n">
-        <v>651610576</v>
+        <v>651656568</v>
       </c>
       <c r="F435" t="inlineStr">
         <is>
@@ -22636,13 +22636,13 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>50591</v>
+        <v>50595</v>
       </c>
       <c r="D436" t="n">
         <v>6175</v>
       </c>
       <c r="E436" t="n">
-        <v>540743208</v>
+        <v>540793887</v>
       </c>
       <c r="F436" t="inlineStr">
         <is>
@@ -22687,13 +22687,13 @@
         </is>
       </c>
       <c r="C437" t="n">
-        <v>30925</v>
+        <v>30927</v>
       </c>
       <c r="D437" t="n">
         <v>3832</v>
       </c>
       <c r="E437" t="n">
-        <v>593891478</v>
+        <v>593907653</v>
       </c>
       <c r="F437" t="inlineStr">
         <is>
@@ -22738,13 +22738,13 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>10226</v>
+        <v>10231</v>
       </c>
       <c r="D438" t="n">
         <v>1383</v>
       </c>
       <c r="E438" t="n">
-        <v>478600908</v>
+        <v>479243730</v>
       </c>
       <c r="F438" t="inlineStr">
         <is>
@@ -24013,13 +24013,13 @@
         </is>
       </c>
       <c r="C463" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D463" t="n">
         <v>16</v>
       </c>
       <c r="E463" t="n">
-        <v>4277625</v>
+        <v>4344147</v>
       </c>
       <c r="F463" t="inlineStr">
         <is>
@@ -25900,13 +25900,13 @@
         </is>
       </c>
       <c r="C500" t="n">
-        <v>6386</v>
+        <v>6387</v>
       </c>
       <c r="D500" t="n">
         <v>1894</v>
       </c>
       <c r="E500" t="n">
-        <v>21935846</v>
+        <v>21941144</v>
       </c>
       <c r="F500" t="inlineStr">
         <is>
@@ -26002,13 +26002,13 @@
         </is>
       </c>
       <c r="C502" t="n">
-        <v>1269</v>
+        <v>1271</v>
       </c>
       <c r="D502" t="n">
         <v>233</v>
       </c>
       <c r="E502" t="n">
-        <v>20732303</v>
+        <v>20757709</v>
       </c>
       <c r="F502" t="inlineStr">
         <is>
@@ -26257,13 +26257,13 @@
         </is>
       </c>
       <c r="C507" t="n">
-        <v>3789</v>
+        <v>3791</v>
       </c>
       <c r="D507" t="n">
         <v>699</v>
       </c>
       <c r="E507" t="n">
-        <v>9073557</v>
+        <v>9080369</v>
       </c>
       <c r="F507" t="inlineStr">
         <is>
@@ -26308,13 +26308,13 @@
         </is>
       </c>
       <c r="C508" t="n">
-        <v>11689</v>
+        <v>11691</v>
       </c>
       <c r="D508" t="n">
         <v>2248</v>
       </c>
       <c r="E508" t="n">
-        <v>32938514</v>
+        <v>32947448</v>
       </c>
       <c r="F508" t="inlineStr">
         <is>
@@ -26359,13 +26359,13 @@
         </is>
       </c>
       <c r="C509" t="n">
-        <v>4549</v>
+        <v>4554</v>
       </c>
       <c r="D509" t="n">
         <v>967</v>
       </c>
       <c r="E509" t="n">
-        <v>20417858</v>
+        <v>20454780</v>
       </c>
       <c r="F509" t="inlineStr">
         <is>
@@ -26461,13 +26461,13 @@
         </is>
       </c>
       <c r="C511" t="n">
-        <v>970</v>
+        <v>973</v>
       </c>
       <c r="D511" t="n">
         <v>161</v>
       </c>
       <c r="E511" t="n">
-        <v>11674776</v>
+        <v>11742670</v>
       </c>
       <c r="F511" t="inlineStr">
         <is>
@@ -26665,13 +26665,13 @@
         </is>
       </c>
       <c r="C515" t="n">
-        <v>8484</v>
+        <v>8485</v>
       </c>
       <c r="D515" t="n">
         <v>1493</v>
       </c>
       <c r="E515" t="n">
-        <v>12669069</v>
+        <v>12669783</v>
       </c>
       <c r="F515" t="inlineStr">
         <is>
@@ -26767,13 +26767,13 @@
         </is>
       </c>
       <c r="C517" t="n">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="D517" t="n">
         <v>139</v>
       </c>
       <c r="E517" t="n">
-        <v>2622736</v>
+        <v>2624236</v>
       </c>
       <c r="F517" t="inlineStr">
         <is>
@@ -32887,13 +32887,13 @@
         </is>
       </c>
       <c r="C637" t="n">
-        <v>8500</v>
+        <v>8501</v>
       </c>
       <c r="D637" t="n">
         <v>1825</v>
       </c>
       <c r="E637" t="n">
-        <v>31197818</v>
+        <v>31202794</v>
       </c>
       <c r="F637" t="inlineStr">
         <is>
@@ -38293,13 +38293,13 @@
         </is>
       </c>
       <c r="C743" t="n">
-        <v>2156</v>
+        <v>2157</v>
       </c>
       <c r="D743" t="n">
         <v>423</v>
       </c>
       <c r="E743" t="n">
-        <v>17671439</v>
+        <v>17692256</v>
       </c>
       <c r="F743" t="inlineStr">
         <is>
